--- a/RACS_protocol_v1.0.xlsx
+++ b/RACS_protocol_v1.0.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinkim/racs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcs19\Desktop\PROGRAM\02. RACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA23580-BF9C-BB47-9E8B-2A686E73F206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C96148-A85B-4294-B76F-9FFA26BF078D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36200" windowHeight="21140" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F47AAF-13E5-2343-9DFA-0FEF84E6A256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$60</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -543,85 +546,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -631,15 +574,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,1055 +956,1102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE4A33-982B-184D-BF9A-D1845FE16F22}">
   <dimension ref="B1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="38"/>
-      <c r="C4" s="32" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="2:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="31">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10" t="s">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10" t="s">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10" t="s">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+    <row r="13" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10" t="s">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="6">
         <v>10</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+    <row r="17" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="19"/>
+      <c r="E17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="6">
         <v>10</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="6">
         <v>20</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="19"/>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="D20" s="19"/>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="D21" s="19"/>
+      <c r="E21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>9</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D22" s="19"/>
+      <c r="E22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
         <v>10</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="3">
         <v>99</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="37" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="30" t="s">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="38"/>
-      <c r="C30" s="32" t="s">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="21"/>
+      <c r="C30" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="14" t="s">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="37"/>
+      <c r="C31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="3">
         <v>10</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22">
         <v>2</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="7" t="s">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="7" t="s">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="7" t="s">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="10" t="s">
+      <c r="I39" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="10" t="s">
+      <c r="I40" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="10" t="s">
+      <c r="I41" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="14">
+      <c r="I42" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="22">
         <v>3</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>0</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="22"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="10" t="s">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="22"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="10" t="s">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="22"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="19" t="s">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="10" t="s">
+      <c r="I46" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
+      <c r="I47" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="31">
         <v>4</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="10">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="6">
         <v>10</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="14">
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="22">
         <v>5</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="6">
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B51" s="22"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="19" t="s">
+      <c r="I50" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="6">
         <v>55</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="22"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="9" t="s">
+      <c r="I51" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="6">
         <v>10</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="9" t="s">
+      <c r="I52" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="24"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>20</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I53" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>6</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="10">
+      <c r="D54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="6">
         <v>0</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>7</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="7">
+      <c r="D55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>8</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="D56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>9</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="D57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="3">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="31">
         <v>10</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="7">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="3">
         <v>99</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I59" s="8"/>
+      <c r="I59" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D7:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="B28:B30"/>
@@ -2018,54 +2068,8 @@
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D35:D38"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D7:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>